--- a/sample-management/src/main/resources/AnalysisReportTemplate.xlsx
+++ b/sample-management/src/main/resources/AnalysisReportTemplate.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$B$8:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Coordinates</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Protocol Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,9 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -382,6 +382,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -420,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -787,56 +799,56 @@
   <sheetData>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="5"/>
@@ -846,11 +858,11 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -862,57 +874,47 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="2"/>
+      <c r="B12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/sample-management/src/main/resources/AnalysisReportTemplate.xlsx
+++ b/sample-management/src/main/resources/AnalysisReportTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96455bb4d7de5932/Documents/UNI/Semester 6/Probenmanagement_FoPra/sample-management/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_781A86F3C72A0108F8B21056D94ECE9F64E74400" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67144F0E-4F77-41B5-B05B-08DBB31DEE17}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
+    <workbookView xWindow="3696" yWindow="1176" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="10" r:id="rId1"/>
@@ -13,8 +19,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$B$8:$F$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Coordinates</t>
   </si>
@@ -39,12 +45,6 @@
     <t>Study Name</t>
   </si>
   <si>
-    <t>in µl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum, Plasma </t>
-  </si>
-  <si>
     <t>Assay:</t>
   </si>
   <si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Calculation carried out:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,9 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,9 +371,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,10 +424,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,145 +772,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="43" t="s">
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="20" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>11</v>
+      <c r="B12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
